--- a/SMSApplication/bin/Debug/Templates/Student Master Template Import.xlsx
+++ b/SMSApplication/bin/Debug/Templates/Student Master Template Import.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>S.No.</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>RF ID Card No.</t>
+  </si>
+  <si>
+    <t>Admission No.</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -415,32 +418,36 @@
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.42578125" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/SMSApplication/bin/Debug/Templates/Student Master Template Import.xlsx
+++ b/SMSApplication/bin/Debug/Templates/Student Master Template Import.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>S.No.</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Blood Group</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>Mobile No.</t>
   </si>
   <si>
@@ -43,6 +40,30 @@
   </si>
   <si>
     <t>Admission No.</t>
+  </si>
+  <si>
+    <t>Parent / Guardian Name</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>Address Line - 1</t>
+  </si>
+  <si>
+    <t>Address Line - 2</t>
+  </si>
+  <si>
+    <t>Address Line - 3</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -404,51 +425,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" customWidth="1"/>
+    <col min="14" max="14" width="29" customWidth="1"/>
+    <col min="15" max="15" width="29.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/SMSApplication/bin/Debug/Templates/Student Master Template Import.xlsx
+++ b/SMSApplication/bin/Debug/Templates/Student Master Template Import.xlsx
@@ -126,11 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,6 +502,9 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:16">
+      <c r="B2" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SMSApplication/bin/Debug/Templates/Student Master Template Import.xlsx
+++ b/SMSApplication/bin/Debug/Templates/Student Master Template Import.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>S.No.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Student Name</t>
   </si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>Pincode</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -426,16 +420,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="3" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
@@ -452,24 +447,24 @@
     <col min="17" max="17" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -481,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -495,14 +490,9 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:14">
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
   </sheetData>

--- a/SMSApplication/bin/Debug/Templates/Student Master Template Import.xlsx
+++ b/SMSApplication/bin/Debug/Templates/Student Master Template Import.xlsx
@@ -64,6 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -120,12 +123,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -428,11 +438,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" customWidth="1"/>
@@ -447,8 +457,8 @@
     <col min="17" max="17" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="15.75">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -460,7 +470,7 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -491,12 +501,89 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:15">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
